--- a/backend/test.xlsx
+++ b/backend/test.xlsx
@@ -421,7 +421,7 @@
         <v>MISHRA GAURAV SATYAPRAKASH</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="3">
@@ -432,7 +432,7 @@
         <v>GOVARI YOGESH RADHESH BHARATI</v>
       </c>
       <c r="C3">
-        <v>39</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="4">
@@ -443,7 +443,7 @@
         <v>BAGWE VRUSHAL MANGESH ARCHANA</v>
       </c>
       <c r="C4">
-        <v>23</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="5">
@@ -454,7 +454,7 @@
         <v>DSOUZA JOSHUA JERALD JULIET</v>
       </c>
       <c r="C5">
-        <v>33</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="6">
@@ -465,7 +465,7 @@
         <v>JAGANIYA SHRUTI JAYANTIBHAI GEETA</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="7">
@@ -476,7 +476,7 @@
         <v>GIRADKAR YASH RAMESH SUSHMA</v>
       </c>
       <c r="C7">
-        <v>23</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="8">
@@ -487,7 +487,7 @@
         <v>CORDA SWEDEL RICHIE CORDA</v>
       </c>
       <c r="C8">
-        <v>12</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="9">
@@ -498,7 +498,7 @@
         <v>PATEL ABHISHEK NILESH HEMA</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="10">
@@ -509,7 +509,7 @@
         <v>MHADGUT VEDANG MAHENDRA ANJANA</v>
       </c>
       <c r="C10">
-        <v>23</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="11">
@@ -520,7 +520,7 @@
         <v>SABLE NEHA ANIL JYOTI</v>
       </c>
       <c r="C11">
-        <v>54</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="12">
@@ -531,7 +531,7 @@
         <v>GAONKAR PRATHAM RAJESH SONAL</v>
       </c>
       <c r="C12">
-        <v>45</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="13">
@@ -542,7 +542,7 @@
         <v>GAMRE PRASHIK SANTOSH KADAMBARI</v>
       </c>
       <c r="C13">
-        <v>34</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="14">
@@ -553,7 +553,7 @@
         <v>GONSALVES GLEN NAPOLEON NAYANA</v>
       </c>
       <c r="C14">
-        <v>23</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="15">
@@ -564,7 +564,7 @@
         <v>KATARIYA UJWAL PARESH MUKTA</v>
       </c>
       <c r="C15">
-        <v>43</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="16">
@@ -575,7 +575,7 @@
         <v>LOHIA MANAV SHARWAN SANTOSH</v>
       </c>
       <c r="C16">
-        <v>12</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="17">
@@ -586,7 +586,7 @@
         <v>MAGHRABI AHMED HUSAIN SHA</v>
       </c>
       <c r="C17">
-        <v>65</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="18">
@@ -597,7 +597,7 @@
         <v>MAHAJAN VEDANT SURESH</v>
       </c>
       <c r="C18">
-        <v>89</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="19">
@@ -608,7 +608,7 @@
         <v>KADAM RIYA PRASAD POOJA</v>
       </c>
       <c r="C19">
-        <v>43</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="20">
@@ -619,7 +619,7 @@
         <v>BHAKTI BHAVESH KALPANA</v>
       </c>
       <c r="C20">
-        <v>34</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="21">
@@ -630,7 +630,7 @@
         <v>MADKAR MANASI HEMANT LEKHA</v>
       </c>
       <c r="C21">
-        <v>34</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="22">
@@ -641,7 +641,7 @@
         <v>MENEZES BALIN DOMINIC JULIE</v>
       </c>
       <c r="C22">
-        <v>68</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="23">
@@ -652,7 +652,7 @@
         <v>JACOB REJITH DENNY GOLDA</v>
       </c>
       <c r="C23">
-        <v>55</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="24">
@@ -663,7 +663,7 @@
         <v>KADAM KALPESH VILAS NILAM</v>
       </c>
       <c r="C24">
-        <v>45</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="25">
@@ -674,7 +674,7 @@
         <v>LOHAR MAHENDRA NARAYAN</v>
       </c>
       <c r="C25">
-        <v>45</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="26">
@@ -685,7 +685,7 @@
         <v>MANE SWAYAM ANIKET ANITA</v>
       </c>
       <c r="C26">
-        <v>74</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="27">
@@ -696,7 +696,7 @@
         <v>PURANIK ATHARVA LALIT VAISHALI</v>
       </c>
       <c r="C27">
-        <v>75</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="28">
@@ -707,7 +707,7 @@
         <v>SAWANT SUMIT RAVINDRA RESHMA</v>
       </c>
       <c r="C28">
-        <v>86</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="29">
@@ -718,7 +718,7 @@
         <v>PATEL YASH MAHESH SAPANA</v>
       </c>
       <c r="C29">
-        <v>79</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="30">
@@ -729,7 +729,7 @@
         <v>RAI SHASHANK ANAND BABITA</v>
       </c>
       <c r="C30">
-        <v>80</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="31">
@@ -740,7 +740,7 @@
         <v>REBELLO CHRISANNE NERAS NILIMA</v>
       </c>
       <c r="C31">
-        <v>89</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="32">
@@ -751,7 +751,7 @@
         <v>NALAWADE AYUSH PRAMOD SEEMA</v>
       </c>
       <c r="C32">
-        <v>57</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="33">
@@ -762,7 +762,7 @@
         <v>PEREIRA SHAWN WILFRED VIRGINA</v>
       </c>
       <c r="C33">
-        <v>66</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="34">
@@ -773,7 +773,7 @@
         <v>KASHYAP DILIP NIRANJANA</v>
       </c>
       <c r="C34">
-        <v>67</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="35">
@@ -784,7 +784,7 @@
         <v>PATEL ISHIKA JAYANTILAL JAIVANTI PATEL</v>
       </c>
       <c r="C35">
-        <v>56</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="36">
@@ -795,7 +795,7 @@
         <v>SHIRODE ANUJA YOGESH NITA</v>
       </c>
       <c r="C36">
-        <v>56</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="37">
@@ -806,7 +806,7 @@
         <v>SHROFF YASH PIYUSH AMITA</v>
       </c>
       <c r="C37">
-        <v>85</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="38">
@@ -817,7 +817,7 @@
         <v>SINGH KSHAMA SABHAJEET KUSUMLATA</v>
       </c>
       <c r="C38">
-        <v>86</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="39">
@@ -828,7 +828,7 @@
         <v>NIBRAD TEJAS GULAB POORNIMA</v>
       </c>
       <c r="C39">
-        <v>76</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="40">
@@ -839,7 +839,7 @@
         <v>SHARMA AKSHANSH RAJEEV KUMAR</v>
       </c>
       <c r="C40">
-        <v>96</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="41">
@@ -850,7 +850,7 @@
         <v>SHEKTE KUNAL PUNDLIK APARNA</v>
       </c>
       <c r="C41">
-        <v>97</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="42">
@@ -861,7 +861,7 @@
         <v>SHETE SHRAVANI SUSHIL PRITI</v>
       </c>
       <c r="C42">
-        <v>67</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="43">
@@ -872,7 +872,7 @@
         <v>MIRANDA ALISHA AGNELO FLEVEINA</v>
       </c>
       <c r="C43">
-        <v>67</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="44">
@@ -883,7 +883,7 @@
         <v>QUADROS ROVIN AARON ROCKY CELESTINE</v>
       </c>
       <c r="C44">
-        <v>67</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="45">
@@ -894,7 +894,7 @@
         <v>SHAIKH MOHD ADNAN MOHD RAFIK SABIRA</v>
       </c>
       <c r="C45">
-        <v>76</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="46">
@@ -905,7 +905,7 @@
         <v>JAGIRDAR SAMIYA AIJAZ</v>
       </c>
       <c r="C46">
-        <v>56</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="47">
@@ -916,7 +916,7 @@
         <v>PARMAR HARSHIL SANJAY KALPANA</v>
       </c>
       <c r="C47">
-        <v>65</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="48">
@@ -927,7 +927,7 @@
         <v>FERNANDES EVET WILLIAM SUNITA</v>
       </c>
       <c r="C48">
-        <v>56</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="49">
@@ -938,7 +938,7 @@
         <v>THAKARE KAUSTUBH HARESH LINA</v>
       </c>
       <c r="C49">
-        <v>67</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="50">
@@ -949,7 +949,7 @@
         <v>TIWARI ANSHU PRADEEP SUNITA TIWARI</v>
       </c>
       <c r="C50">
-        <v>86</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="51">
@@ -960,7 +960,7 @@
         <v>TIWARI NILESH AJAY MADHU TIWARI</v>
       </c>
       <c r="C51">
-        <v>86</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="52">
@@ -971,7 +971,7 @@
         <v>SALIAN MANAS SURESH ASMITA</v>
       </c>
       <c r="C52">
-        <v>58</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="53">
@@ -982,7 +982,7 @@
         <v>ANTONY LEVE GRIJAN ARUL GRACY</v>
       </c>
       <c r="C53">
-        <v>78</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="54">
@@ -993,7 +993,7 @@
         <v>BHOSALE ATHARVA MAHESH MRUNAL</v>
       </c>
       <c r="C54">
-        <v>86</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="55">
@@ -1004,7 +1004,7 @@
         <v>DALVI MAYURESH RAVIKANT RASIKA</v>
       </c>
       <c r="C55">
-        <v>78</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="56">
@@ -1015,7 +1015,7 @@
         <v>BAFNA NISHAR DINESHKUMAR SEEMA</v>
       </c>
       <c r="C56">
-        <v>65</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="57">
@@ -1026,7 +1026,7 @@
         <v>TAURO MELVIN MICHAEL FLORINA TAURO</v>
       </c>
       <c r="C57">
-        <v>66</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="58">
@@ -1037,7 +1037,7 @@
         <v>KAVA YASH RAHUL SONAL</v>
       </c>
       <c r="C58">
-        <v>86</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="59">
@@ -1048,7 +1048,7 @@
         <v>NAIK DHEERAJ SHRINIVAS ANUSAYA</v>
       </c>
       <c r="C59">
-        <v>76</v>
+        <v>32</v>
       </c>
     </row>
     <row r="60">
@@ -1059,7 +1059,7 @@
         <v>DBRITTO ADRIAN GODFREY SARITA</v>
       </c>
       <c r="C60">
-        <v>76</v>
+        <v>43</v>
       </c>
     </row>
     <row r="61">
@@ -1070,7 +1070,7 @@
         <v>CHARUNILKKUNNATHIL AJIL VARGHESE</v>
       </c>
       <c r="C61">
-        <v>69</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="62">
@@ -1081,7 +1081,7 @@
         <v>GOMES SAHIL SIMON SABINA</v>
       </c>
       <c r="C62">
-        <v>96</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="63">
@@ -1092,7 +1092,7 @@
         <v>LOPES SHANNON SIMON JENIFER LOPES</v>
       </c>
       <c r="C63">
-        <v>56</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="64">
@@ -1103,7 +1103,7 @@
         <v>KADAM SHARVIL AJIT SIMANTINI</v>
       </c>
       <c r="C64">
-        <v>75</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="65">
@@ -1114,7 +1114,7 @@
         <v>MENEZES RINSEY ANDREW MEENA</v>
       </c>
       <c r="C65">
-        <v>48</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="66">
@@ -1125,7 +1125,7 @@
         <v>MARTI PRINCEWIN WILLIAM PRECILLA</v>
       </c>
       <c r="C66">
-        <v>97</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="67">
@@ -1136,7 +1136,7 @@
         <v>DHANDHUKIYA DHARMIK HIMMATBHAI</v>
       </c>
       <c r="C67">
-        <v>76</v>
+        <v>-8</v>
       </c>
     </row>
   </sheetData>
